--- a/biology/Médecine/Walther_H._Lechler/Walther_H._Lechler.xlsx
+++ b/biology/Médecine/Walther_H._Lechler/Walther_H._Lechler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walther H. Lechler (né le 24 juillet 1923 à Wurtzbourg, mort le 22 décembre 2013 à Röthenbach en Allgäu) est un neuropsychiatre et psychothérapeute allemand. Il invente le modèle de Bad Herrenalb, un concept de communauté psychothérapeutique pour les malades mentaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lechler étudie la médecine à Wurtzbourg et Paris et s'intéresse d'abord à la dermatologie et à la chirurgie. Finalement il choisit la neurologie, la psychiatrie, la psychothérapie et la médecine psychosomatique. Aux États-Unis, il fait une formation complémentaire sur l'Approche humaniste et le New Identity Process (N.I.P.) auprès de Daniel Casriel.
 Après ses études à Paris et Wurtzbourg, il devient médecin capitaine dans l´armée américaine à Munich, c´est pendant cet engagement Lechler découvre le programme en 12 étapes des Alcooliques anonymes. Il en fait la promotion et l'étend à Al-Anon/Alateen et aux Émotifs Anonymes.
